--- a/QuantLibXL/Data2/XLS/SEK/SEK_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK/SEK_Market.xlsx
@@ -1791,46 +1791,46 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 09:35:04</v>
+        <v>Updated at 16:46:14</v>
         <stp/>
-        <stp>{5C479A66-51EF-4C0A-8CB8-8610CB59C58D}</stp>
+        <stp>{90BFE4FF-5062-49D3-AB2B-617393EF964C}</stp>
+        <tr r="O6" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:46:14</v>
+        <stp/>
+        <stp>{0FEDD04E-DD1F-4E0F-BD35-18B552146D7D}</stp>
+        <tr r="N5" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:46:14</v>
+        <stp/>
+        <stp>{184CB3D7-3011-41FA-A180-E9A26CD0C306}</stp>
+        <tr r="S3" s="64"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:46:14</v>
+        <stp/>
+        <stp>{6C600682-3ACD-4E2B-9D0C-C096165B89CF}</stp>
         <tr r="P5" s="69"/>
       </tp>
       <tp t="s">
-        <v>Paused at 09:35:04</v>
+        <v>Updated at 16:46:14</v>
         <stp/>
-        <stp>{952C35EB-8489-495D-9960-0343A44CD2A5}</stp>
-        <tr r="S3" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 09:35:04</v>
-        <stp/>
-        <stp>{B39BE39A-CB49-4FA6-9F99-8009615693B9}</stp>
-        <tr r="O6" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 09:35:04</v>
-        <stp/>
-        <stp>{E02D3973-DEF8-49F8-BB78-F76D57FD2040}</stp>
+        <stp>{EF7F85B9-FA7A-4622-AA69-215DFCA8786F}</stp>
         <tr r="P5" s="66"/>
       </tp>
       <tp t="s">
-        <v>Paused at 09:35:04</v>
+        <v>Updated at 16:46:14</v>
         <stp/>
-        <stp>{6A58075F-0492-4CB4-A3A3-4E6DC1027E8A}</stp>
-        <tr r="N5" s="16"/>
+        <stp>{CA679186-9101-48F6-B635-6B9FE6F6B892}</stp>
+        <tr r="K5" s="15"/>
       </tp>
       <tp t="s">
-        <v>Paused at 09:35:04</v>
+        <v>Updated at 16:46:14</v>
         <stp/>
-        <stp>{C76AEC19-8564-47C9-B0A1-F98121FBF20A}</stp>
+        <stp>{59F4C388-DE63-42EB-B0B4-C2932D9849C1}</stp>
         <tr r="P5" s="67"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 09:35:04</v>
-        <stp/>
-        <stp>{AC385E6E-2FDE-4835-B2D0-4BD1349054F7}</stp>
-        <tr r="K5" s="15"/>
       </tp>
     </main>
   </volType>
@@ -2128,7 +2128,7 @@
   <dimension ref="B1:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2146,7 +2146,7 @@
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="72" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Dec 24 2014 09:17:06</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  8 2015 11:10:23</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
@@ -2154,14 +2154,14 @@
         <v>6</v>
       </c>
       <c r="D3" s="75">
-        <v>42088.391377314816</v>
+        <v>42137.697928240741</v>
       </c>
       <c r="H3" s="114" t="s">
         <v>132</v>
       </c>
       <c r="I3" s="77">
         <f>_xll.ohTrigger(Deposits!S4,FRA3M!X4,OIS!Y5,Swaps3M!Z4,BasisSwap3M6M!Z4,BasisSwap1M3M!Z4)</f>
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -2178,7 +2178,7 @@
         <v>125</v>
       </c>
       <c r="I5" s="79">
-        <v>42016.698414351849</v>
+        <v>42137.543703703705</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="13.5" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="D8" s="85">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42088</v>
+        <v>42137</v>
       </c>
       <c r="E8" s="105"/>
       <c r="G8" s="97"/>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S3" s="183" t="str">
         <f>_xll.RData(S4:S10,T3:U3,"RTFEED:IDN",,,T4)</f>
-        <v>Paused at 09:35:04</v>
+        <v>Updated at 16:46:14</v>
       </c>
       <c r="T3" s="177" t="s">
         <v>137</v>
@@ -2756,10 +2756,10 @@
         <v>STISEKTNDFI=</v>
       </c>
       <c r="T5" s="178">
-        <v>42087</v>
+        <v>42137</v>
       </c>
       <c r="U5" s="187">
-        <v>-0.123</v>
+        <v>-0.182</v>
       </c>
       <c r="V5" s="178" t="b">
         <f>IF(AND(ISNUMBER($U5),$U5&lt;&gt;0%),TRUE,FALSE)</f>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="X5" s="181">
         <f>_xll.qlQuoteValue(L5)</f>
-        <v>3.6000000000000002E-4</v>
+        <v>-1.82E-3</v>
       </c>
       <c r="Y5" s="8"/>
     </row>
@@ -2830,10 +2830,10 @@
         <v>STISEK1WDFI=</v>
       </c>
       <c r="T6" s="178">
-        <v>42087</v>
+        <v>42137</v>
       </c>
       <c r="U6" s="187">
-        <v>-0.13500000000000001</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="V6" s="178" t="b">
         <f>IF(AND(ISNUMBER($U6),$U6&lt;&gt;0%),TRUE,FALSE)</f>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="X6" s="181">
         <f>_xll.qlQuoteValue(L6)</f>
-        <v>4.0999999999999999E-4</v>
+        <v>-2.66E-3</v>
       </c>
       <c r="Y6" s="8"/>
     </row>
@@ -2907,10 +2907,10 @@
         <v>STISEK1MDFI=</v>
       </c>
       <c r="T7" s="178">
-        <v>42087</v>
+        <v>42137</v>
       </c>
       <c r="U7" s="187">
-        <v>-7.5999999999999998E-2</v>
+        <v>-0.26400000000000001</v>
       </c>
       <c r="V7" s="178" t="b">
         <f t="shared" ref="V7:V10" si="5">IF(AND(ISNUMBER($U7),$U7&lt;&gt;0%),TRUE,FALSE)</f>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="X7" s="181">
         <f>_xll.qlQuoteValue(L7)</f>
-        <v>-1.1000000000000002E-4</v>
+        <v>-2.64E-3</v>
       </c>
       <c r="Y7" s="8"/>
     </row>
@@ -2981,10 +2981,10 @@
         <v>STISEK2MDFI=</v>
       </c>
       <c r="T8" s="178">
-        <v>42087</v>
+        <v>42137</v>
       </c>
       <c r="U8" s="187">
-        <v>-6.9999999999999993E-2</v>
+        <v>-0.24300000000000002</v>
       </c>
       <c r="V8" s="178" t="b">
         <f t="shared" si="5"/>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="X8" s="181">
         <f>_xll.qlQuoteValue(L8)</f>
-        <v>7.0000000000000007E-5</v>
+        <v>-2.4300000000000003E-3</v>
       </c>
       <c r="Y8" s="8"/>
     </row>
@@ -3058,10 +3058,10 @@
         <v>STISEK3MDFI=</v>
       </c>
       <c r="T9" s="178">
-        <v>42087</v>
+        <v>42137</v>
       </c>
       <c r="U9" s="187">
-        <v>-5.5000000000000007E-2</v>
+        <v>-0.20800000000000002</v>
       </c>
       <c r="V9" s="178" t="b">
         <f t="shared" si="5"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="X9" s="181">
         <f>_xll.qlQuoteValue(L9)</f>
-        <v>4.6999999999999999E-4</v>
+        <v>-2.0800000000000003E-3</v>
       </c>
       <c r="Y9" s="8"/>
     </row>
@@ -3135,10 +3135,10 @@
         <v>STISEK6MDFI=</v>
       </c>
       <c r="T10" s="179">
-        <v>42087</v>
+        <v>42137</v>
       </c>
       <c r="U10" s="187">
-        <v>-2.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="V10" s="179" t="b">
         <f t="shared" si="5"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="X10" s="182">
         <f>_xll.qlQuoteValue(L10)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>-1.5499999999999999E-3</v>
       </c>
       <c r="Y10" s="8"/>
     </row>
@@ -4569,7 +4569,7 @@
       <c r="J5" s="166"/>
       <c r="K5" s="176" t="str">
         <f>_xll.RData(K7:K23,L5:M5,,ReutersRtMode,,L7)</f>
-        <v>Paused at 09:35:04</v>
+        <v>Updated at 16:46:14</v>
       </c>
       <c r="L5" s="167" t="s">
         <v>106</v>
@@ -4670,28 +4670,28 @@
         <v>STISEKTNDFI=</v>
       </c>
       <c r="L7" s="153">
-        <v>-0.123</v>
+        <v>-0.182</v>
       </c>
       <c r="M7" s="153">
         <v>0</v>
       </c>
       <c r="N7" s="46">
         <f t="shared" ref="N7:N23" si="1">IF(ISNUMBER(L7),L7,#NUM!)</f>
-        <v>-0.123</v>
+        <v>-0.182</v>
       </c>
       <c r="O7" s="32" t="s">
         <v>154</v>
       </c>
       <c r="P7" s="47">
-        <v>7.0999999999999994E-2</v>
+        <v>-0.182</v>
       </c>
       <c r="Q7" s="32"/>
       <c r="R7" s="46">
-        <v>-0.123</v>
+        <v>-0.182</v>
       </c>
       <c r="S7" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E7,R7/100,Trigger)</f>
-        <v>-1.5900000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="T7" s="34"/>
     </row>
@@ -4772,28 +4772,28 @@
         <v>STISEK1WDFI=</v>
       </c>
       <c r="L9" s="153">
-        <v>-0.13500000000000001</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="M9" s="153">
         <v>0</v>
       </c>
       <c r="N9" s="46">
         <f t="shared" si="1"/>
-        <v>-0.13500000000000001</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="O9" s="32" t="s">
         <v>154</v>
       </c>
       <c r="P9" s="47">
-        <v>9.8000000000000004E-2</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="Q9" s="32"/>
       <c r="R9" s="46">
-        <v>-0.13500000000000001</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="S9" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E9,R9/100,Trigger)</f>
-        <v>-1.7600000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="T9" s="34"/>
     </row>
@@ -4925,28 +4925,28 @@
         <v>STISEK1MDFI=</v>
       </c>
       <c r="L12" s="153">
-        <v>-7.5999999999999998E-2</v>
+        <v>-0.26400000000000001</v>
       </c>
       <c r="M12" s="153">
         <v>0</v>
       </c>
       <c r="N12" s="46">
         <f t="shared" si="1"/>
-        <v>-7.5999999999999998E-2</v>
+        <v>-0.26400000000000001</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>154</v>
       </c>
       <c r="P12" s="154">
-        <v>0.151</v>
+        <v>-0.26400000000000001</v>
       </c>
       <c r="Q12" s="32"/>
       <c r="R12" s="46">
-        <v>-7.5999999999999998E-2</v>
+        <v>-0.26400000000000001</v>
       </c>
       <c r="S12" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E12,R12/100,Trigger)</f>
-        <v>-6.4999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="T12" s="34"/>
     </row>
@@ -4976,28 +4976,28 @@
         <v>STISEK2MDFI=</v>
       </c>
       <c r="L13" s="153">
-        <v>-6.9999999999999993E-2</v>
+        <v>-0.24300000000000002</v>
       </c>
       <c r="M13" s="153">
         <v>0</v>
       </c>
       <c r="N13" s="46">
         <f t="shared" si="1"/>
-        <v>-6.9999999999999993E-2</v>
+        <v>-0.24300000000000002</v>
       </c>
       <c r="O13" s="32" t="s">
         <v>154</v>
       </c>
       <c r="P13" s="154">
-        <v>0.191</v>
+        <v>-0.24300000000000002</v>
       </c>
       <c r="Q13" s="32"/>
       <c r="R13" s="46">
-        <v>-6.9999999999999993E-2</v>
+        <v>-0.24300000000000002</v>
       </c>
       <c r="S13" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E13,R13/100,Trigger)</f>
-        <v>-7.6999999999999985E-4</v>
+        <v>0</v>
       </c>
       <c r="T13" s="34"/>
     </row>
@@ -5027,28 +5027,28 @@
         <v>STISEK3MDFI=</v>
       </c>
       <c r="L14" s="153">
-        <v>-5.5000000000000007E-2</v>
+        <v>-0.20800000000000002</v>
       </c>
       <c r="M14" s="153">
         <v>0</v>
       </c>
       <c r="N14" s="46">
         <f t="shared" si="1"/>
-        <v>-5.5000000000000007E-2</v>
+        <v>-0.20800000000000002</v>
       </c>
       <c r="O14" s="32" t="s">
         <v>154</v>
       </c>
       <c r="P14" s="154">
-        <v>0.255</v>
+        <v>-0.20800000000000002</v>
       </c>
       <c r="Q14" s="32"/>
       <c r="R14" s="46">
-        <v>-5.5000000000000007E-2</v>
+        <v>-0.20800000000000002</v>
       </c>
       <c r="S14" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E14,R14/100,Trigger)</f>
-        <v>-1.0200000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="T14" s="34"/>
     </row>
@@ -5180,28 +5180,28 @@
         <v>STISEK6MDFI=</v>
       </c>
       <c r="L17" s="153">
-        <v>-2.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="M17" s="153">
         <v>0</v>
       </c>
       <c r="N17" s="46">
         <f t="shared" si="1"/>
-        <v>-2.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>154</v>
       </c>
       <c r="P17" s="154">
-        <v>0.33799999999999997</v>
+        <v>-0.155</v>
       </c>
       <c r="Q17" s="32"/>
       <c r="R17" s="46">
-        <v>-2.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="S17" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E17,R17/100,Trigger)</f>
-        <v>-1.5600000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="T17" s="34"/>
     </row>
@@ -5690,7 +5690,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="33">
         <f>_xll.ohTrigger(X6:X20)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="34"/>
       <c r="AA4" s="28"/>
@@ -5721,7 +5721,7 @@
       <c r="M5" s="175"/>
       <c r="N5" s="176" t="str">
         <f>_xll.RData(N6:N20,O5:R5,"RTFEED:IDN",ReutersRtMode,,O6)</f>
-        <v>Paused at 09:35:04</v>
+        <v>Updated at 16:46:14</v>
       </c>
       <c r="O5" s="168" t="s">
         <v>106</v>
@@ -5804,10 +5804,10 @@
         <v>SEK3F1=HBCO</v>
       </c>
       <c r="O6" s="39">
-        <v>-0.10500000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="P6" s="39">
-        <v>-8.4999999999999992E-2</v>
+        <v>-0.23</v>
       </c>
       <c r="Q6" s="37">
         <v>0</v>
@@ -5817,16 +5817,16 @@
       </c>
       <c r="S6" s="39">
         <f>IF(ISERROR(AVERAGE(O6,P6)),#NUM!,AVERAGE(O6,P6))</f>
-        <v>-9.5000000000000001E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="T6" s="32"/>
       <c r="U6" s="40">
-        <v>0.2225</v>
+        <v>-0.24</v>
       </c>
       <c r="V6" s="32"/>
       <c r="W6" s="40">
         <f t="array" ref="W6:W20">QuoteLive</f>
-        <v>-9.5000000000000001E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="X6" s="41">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/100,Trigger)</f>
@@ -5839,16 +5839,16 @@
         <v>FUTSEK3F1_Quote</v>
       </c>
       <c r="AC6" s="36" t="str">
-        <f>_xll.qlSimpleQuote(AB6,,,,Trigger)</f>
-        <v>FUTSEK3F1_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB6,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F1_Quote#0010</v>
       </c>
       <c r="AD6" s="199">
         <f>100-W6</f>
-        <v>100.095</v>
-      </c>
-      <c r="AE6" s="61">
+        <v>100.24</v>
+      </c>
+      <c r="AE6" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC6,AD6,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AF6" s="59"/>
     </row>
@@ -5890,10 +5890,10 @@
         <v>SEK3F2=HBCO</v>
       </c>
       <c r="O7" s="46">
-        <v>-0.125</v>
+        <v>-0.27</v>
       </c>
       <c r="P7" s="46">
-        <v>-0.10500000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="Q7" s="44">
         <v>0</v>
@@ -5903,15 +5903,15 @@
       </c>
       <c r="S7" s="46">
         <f t="shared" ref="S7:S20" si="4">IF(ISERROR(AVERAGE(O7,P7)),#NUM!,AVERAGE(O7,P7))</f>
-        <v>-0.115</v>
+        <v>-0.26</v>
       </c>
       <c r="T7" s="32"/>
       <c r="U7" s="47">
-        <v>0.19500000000000001</v>
+        <v>-0.26</v>
       </c>
       <c r="V7" s="32"/>
       <c r="W7" s="47">
-        <v>-0.115</v>
+        <v>-0.26</v>
       </c>
       <c r="X7" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F7,W7/100,Trigger)</f>
@@ -5924,16 +5924,16 @@
         <v>FUTSEK3F2_Quote</v>
       </c>
       <c r="AC7" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB7,,,,Trigger)</f>
-        <v>FUTSEK3F2_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB7,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F2_Quote#0001</v>
       </c>
       <c r="AD7" s="200">
         <f t="shared" ref="AD7:AD20" si="6">100-W7</f>
-        <v>100.11499999999999</v>
-      </c>
-      <c r="AE7" s="61">
+        <v>100.26</v>
+      </c>
+      <c r="AE7" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC7,AD7,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AF7" s="59"/>
     </row>
@@ -5975,10 +5975,10 @@
         <v>SEK3F3=HBCO</v>
       </c>
       <c r="O8" s="46">
-        <v>-0.13</v>
+        <v>-0.26</v>
       </c>
       <c r="P8" s="46">
-        <v>-0.11000000000000001</v>
+        <v>-0.24000000000000002</v>
       </c>
       <c r="Q8" s="44">
         <v>0</v>
@@ -5988,15 +5988,15 @@
       </c>
       <c r="S8" s="46">
         <f t="shared" si="4"/>
-        <v>-0.12000000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="T8" s="32"/>
       <c r="U8" s="47">
-        <v>0.185</v>
+        <v>-0.25</v>
       </c>
       <c r="V8" s="32"/>
       <c r="W8" s="47">
-        <v>-0.12000000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="X8" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F8,W8/100,Trigger)</f>
@@ -6009,16 +6009,16 @@
         <v>FUTSEK3F3_Quote</v>
       </c>
       <c r="AC8" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB8,,,,Trigger)</f>
-        <v>FUTSEK3F3_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB8,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F3_Quote#0001</v>
       </c>
       <c r="AD8" s="200">
         <f t="shared" si="6"/>
-        <v>100.12</v>
-      </c>
-      <c r="AE8" s="61">
+        <v>100.25</v>
+      </c>
+      <c r="AE8" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC8,AD8,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AF8" s="59"/>
     </row>
@@ -6060,10 +6060,10 @@
         <v>SEK3F4=HBCO</v>
       </c>
       <c r="O9" s="46">
-        <v>-9.7500000000000003E-2</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="P9" s="46">
-        <v>-7.7499999999999999E-2</v>
+        <v>-0.20500000000000002</v>
       </c>
       <c r="Q9" s="44">
         <v>0</v>
@@ -6073,15 +6073,15 @@
       </c>
       <c r="S9" s="46">
         <f t="shared" si="4"/>
-        <v>-8.7499999999999994E-2</v>
+        <v>-0.21500000000000002</v>
       </c>
       <c r="T9" s="32"/>
       <c r="U9" s="47">
-        <v>0.19</v>
+        <v>-0.21500000000000002</v>
       </c>
       <c r="V9" s="32"/>
       <c r="W9" s="47">
-        <v>-8.7499999999999994E-2</v>
+        <v>-0.21500000000000002</v>
       </c>
       <c r="X9" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F9,W9/100,Trigger)</f>
@@ -6094,16 +6094,16 @@
         <v>FUTSEK3F4_Quote</v>
       </c>
       <c r="AC9" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB9,,,,Trigger)</f>
-        <v>FUTSEK3F4_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB9,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F4_Quote#0001</v>
       </c>
       <c r="AD9" s="200">
         <f t="shared" si="6"/>
-        <v>100.08750000000001</v>
-      </c>
-      <c r="AE9" s="61">
+        <v>100.215</v>
+      </c>
+      <c r="AE9" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC9,AD9,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AF9" s="59"/>
     </row>
@@ -6145,10 +6145,10 @@
         <v>SEK3F5=HBCO</v>
       </c>
       <c r="O10" s="46">
-        <v>-5.7499999999999996E-2</v>
+        <v>-0.16250000000000001</v>
       </c>
       <c r="P10" s="46">
-        <v>-2.7500000000000004E-2</v>
+        <v>-0.13250000000000001</v>
       </c>
       <c r="Q10" s="44">
         <v>0</v>
@@ -6158,19 +6158,19 @@
       </c>
       <c r="S10" s="46">
         <f t="shared" si="4"/>
-        <v>-4.2499999999999996E-2</v>
+        <v>-0.14750000000000002</v>
       </c>
       <c r="T10" s="32"/>
       <c r="U10" s="47">
-        <v>0.21000000000000002</v>
+        <v>-0.14750000000000002</v>
       </c>
       <c r="V10" s="32"/>
       <c r="W10" s="47">
-        <v>-4.2499999999999996E-2</v>
+        <v>-0.14750000000000002</v>
       </c>
       <c r="X10" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/100,Trigger)</f>
-        <v>-2.4999999999999903E-5</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="34"/>
       <c r="AA10" s="28"/>
@@ -6179,16 +6179,16 @@
         <v>FUTSEK3F5_Quote</v>
       </c>
       <c r="AC10" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB10,,,,Trigger)</f>
-        <v>FUTSEK3F5_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB10,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F5_Quote#0001</v>
       </c>
       <c r="AD10" s="200">
         <f t="shared" si="6"/>
-        <v>100.0425</v>
-      </c>
-      <c r="AE10" s="61">
+        <v>100.14749999999999</v>
+      </c>
+      <c r="AE10" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC10,AD10,Trigger)</f>
-        <v>2.4999999999977263E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="AF10" s="59"/>
     </row>
@@ -6230,10 +6230,10 @@
         <v>SEK3F6=HBCO</v>
       </c>
       <c r="O11" s="46">
-        <v>0.01</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="P11" s="46">
-        <v>0.04</v>
+        <v>-0.04</v>
       </c>
       <c r="Q11" s="44">
         <v>0</v>
@@ -6243,19 +6243,19 @@
       </c>
       <c r="S11" s="46">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>-5.5000000000000007E-2</v>
       </c>
       <c r="T11" s="32"/>
       <c r="U11" s="47">
-        <v>0.24</v>
+        <v>-5.5000000000000007E-2</v>
       </c>
       <c r="V11" s="32"/>
       <c r="W11" s="47">
-        <v>2.5000000000000001E-2</v>
+        <v>-5.5000000000000007E-2</v>
       </c>
       <c r="X11" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/100,Trigger)</f>
-        <v>-2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="34"/>
       <c r="AA11" s="28"/>
@@ -6264,16 +6264,16 @@
         <v>FUTSEK3F6_Quote</v>
       </c>
       <c r="AC11" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB11,,,,Trigger)</f>
-        <v>FUTSEK3F6_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB11,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F6_Quote#0001</v>
       </c>
       <c r="AD11" s="200">
         <f t="shared" si="6"/>
-        <v>99.974999999999994</v>
-      </c>
-      <c r="AE11" s="61">
+        <v>100.05500000000001</v>
+      </c>
+      <c r="AE11" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC11,AD11,Trigger)</f>
-        <v>2.4999999999977263E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="AF11" s="59"/>
     </row>
@@ -6315,10 +6315,10 @@
         <v>SEK3F7=HBCO</v>
       </c>
       <c r="O12" s="46">
-        <v>0.09</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P12" s="46">
-        <v>0.12</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="Q12" s="44">
         <v>0</v>
@@ -6328,15 +6328,15 @@
       </c>
       <c r="S12" s="46">
         <f t="shared" si="4"/>
-        <v>0.105</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" s="47">
-        <v>0.28249999999999997</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V12" s="32"/>
       <c r="W12" s="47">
-        <v>0.105</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="X12" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/100,Trigger)</f>
@@ -6349,16 +6349,16 @@
         <v>FUTSEK3F7_Quote</v>
       </c>
       <c r="AC12" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB12,,,,Trigger)</f>
-        <v>FUTSEK3F7_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB12,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F7_Quote#0001</v>
       </c>
       <c r="AD12" s="200">
         <f t="shared" si="6"/>
-        <v>99.894999999999996</v>
-      </c>
-      <c r="AE12" s="61">
+        <v>99.93</v>
+      </c>
+      <c r="AE12" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC12,AD12,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AF12" s="59"/>
     </row>
@@ -6400,10 +6400,10 @@
         <v>SEK3F8=HBCO</v>
       </c>
       <c r="O13" s="46">
-        <v>0.17499999999999999</v>
+        <v>0.1825</v>
       </c>
       <c r="P13" s="46">
-        <v>0.20499999999999999</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="Q13" s="44">
         <v>0</v>
@@ -6413,15 +6413,15 @@
       </c>
       <c r="S13" s="46">
         <f t="shared" si="4"/>
-        <v>0.19</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="T13" s="32"/>
       <c r="U13" s="47">
-        <v>0.33999999999999997</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="V13" s="32"/>
       <c r="W13" s="47">
-        <v>0.19</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="X13" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/100,Trigger)</f>
@@ -6434,16 +6434,16 @@
         <v>FUTSEK3F8_Quote</v>
       </c>
       <c r="AC13" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB13,,,,Trigger)</f>
-        <v>FUTSEK3F8_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB13,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F8_Quote#0001</v>
       </c>
       <c r="AD13" s="200">
         <f t="shared" si="6"/>
-        <v>99.81</v>
-      </c>
-      <c r="AE13" s="61">
+        <v>99.802499999999995</v>
+      </c>
+      <c r="AE13" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC13,AD13,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AF13" s="59"/>
     </row>
@@ -6485,10 +6485,10 @@
         <v>SEK3F9=HBCO</v>
       </c>
       <c r="O14" s="46">
-        <v>0.255</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="P14" s="46">
-        <v>0.29500000000000004</v>
+        <v>0.34500000000000003</v>
       </c>
       <c r="Q14" s="44">
         <v>0</v>
@@ -6498,15 +6498,15 @@
       </c>
       <c r="S14" s="46">
         <f t="shared" si="4"/>
-        <v>0.27500000000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="T14" s="32"/>
       <c r="U14" s="47">
-        <v>0.40750000000000003</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="V14" s="32"/>
       <c r="W14" s="47">
-        <v>0.27500000000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="X14" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/100,Trigger)</f>
@@ -6519,16 +6519,16 @@
         <v>FUTSEK3F9_Quote</v>
       </c>
       <c r="AC14" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB14,,,,Trigger)</f>
-        <v>FUTSEK3F9_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB14,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F9_Quote#0001</v>
       </c>
       <c r="AD14" s="200">
         <f t="shared" si="6"/>
-        <v>99.724999999999994</v>
-      </c>
-      <c r="AE14" s="61">
+        <v>99.674999999999997</v>
+      </c>
+      <c r="AE14" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC14,AD14,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AF14" s="59"/>
     </row>
@@ -6570,10 +6570,10 @@
         <v>SEK3F10=HBCO</v>
       </c>
       <c r="O15" s="46">
-        <v>0.34249999999999997</v>
+        <v>0.44</v>
       </c>
       <c r="P15" s="46">
-        <v>0.38250000000000001</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="Q15" s="44">
         <v>0</v>
@@ -6583,15 +6583,15 @@
       </c>
       <c r="S15" s="46">
         <f t="shared" si="4"/>
-        <v>0.36249999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="T15" s="32"/>
       <c r="U15" s="47">
-        <v>0.48250000000000004</v>
+        <v>0.46</v>
       </c>
       <c r="V15" s="32"/>
       <c r="W15" s="47">
-        <v>0.36249999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="X15" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/100,Trigger)</f>
@@ -6604,16 +6604,16 @@
         <v>FUTSEK3F10_Quote</v>
       </c>
       <c r="AC15" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB15,,,,Trigger)</f>
-        <v>FUTSEK3F10_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB15,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F10_Quote#0001</v>
       </c>
       <c r="AD15" s="200">
         <f t="shared" si="6"/>
-        <v>99.637500000000003</v>
-      </c>
-      <c r="AE15" s="61">
+        <v>99.54</v>
+      </c>
+      <c r="AE15" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC15,AD15,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AF15" s="59"/>
     </row>
@@ -6655,10 +6655,10 @@
         <v>SEK3F11=HBCO</v>
       </c>
       <c r="O16" s="46">
-        <v>0.43</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="P16" s="46">
-        <v>0.47000000000000003</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="Q16" s="44">
         <v>0</v>
@@ -6668,15 +6668,15 @@
       </c>
       <c r="S16" s="46">
         <f t="shared" si="4"/>
-        <v>0.45</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="T16" s="32"/>
       <c r="U16" s="47">
-        <v>0.5625</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="V16" s="32"/>
       <c r="W16" s="47">
-        <v>0.45</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="X16" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/100,Trigger)</f>
@@ -6689,16 +6689,16 @@
         <v>FUTSEK3F11_Quote</v>
       </c>
       <c r="AC16" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB16,,,,Trigger)</f>
-        <v>FUTSEK3F11_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB16,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F11_Quote#0001</v>
       </c>
       <c r="AD16" s="200">
         <f t="shared" si="6"/>
-        <v>99.55</v>
-      </c>
-      <c r="AE16" s="61">
+        <v>99.405000000000001</v>
+      </c>
+      <c r="AE16" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC16,AD16,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AF16" s="59"/>
     </row>
@@ -6740,10 +6740,10 @@
         <v>SEK3F12=HBCO</v>
       </c>
       <c r="O17" s="46">
-        <v>0.51749999999999996</v>
+        <v>0.71000000000000008</v>
       </c>
       <c r="P17" s="46">
-        <v>0.5575</v>
+        <v>0.75</v>
       </c>
       <c r="Q17" s="44">
         <v>0</v>
@@ -6753,15 +6753,15 @@
       </c>
       <c r="S17" s="46">
         <f t="shared" si="4"/>
-        <v>0.53749999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="T17" s="32"/>
       <c r="U17" s="47">
-        <v>0.64249999999999996</v>
+        <v>0.73</v>
       </c>
       <c r="V17" s="32"/>
       <c r="W17" s="47">
-        <v>0.53749999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="X17" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/100,Trigger)</f>
@@ -6774,16 +6774,16 @@
         <v>FUTSEK3F12_Quote</v>
       </c>
       <c r="AC17" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB17,,,,Trigger)</f>
-        <v>FUTSEK3F12_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB17,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F12_Quote#0001</v>
       </c>
       <c r="AD17" s="200">
         <f t="shared" si="6"/>
-        <v>99.462500000000006</v>
-      </c>
-      <c r="AE17" s="61">
+        <v>99.27</v>
+      </c>
+      <c r="AE17" s="61" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AC17,AD17,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AF17" s="59"/>
     </row>
@@ -6859,8 +6859,8 @@
         <v>FUTSEK3F13_Quote</v>
       </c>
       <c r="AC18" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB18,,,,Trigger)</f>
-        <v>FUTSEK3F13_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB18,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F13_Quote#0001</v>
       </c>
       <c r="AD18" s="200" t="e">
         <f t="shared" si="6"/>
@@ -6944,8 +6944,8 @@
         <v>FUTSEK3F14_Quote</v>
       </c>
       <c r="AC19" s="43" t="str">
-        <f>_xll.qlSimpleQuote(AB19,,,,Trigger)</f>
-        <v>FUTSEK3F14_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB19,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F14_Quote#0001</v>
       </c>
       <c r="AD19" s="200" t="e">
         <f t="shared" si="6"/>
@@ -7029,8 +7029,8 @@
         <v>FUTSEK3F15_Quote</v>
       </c>
       <c r="AC20" s="50" t="str">
-        <f>_xll.qlSimpleQuote(AB20,,,,Trigger)</f>
-        <v>FUTSEK3F15_Quote#0000</v>
+        <f>_xll.qlSimpleQuote(AB20,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>FUTSEK3F15_Quote#0001</v>
       </c>
       <c r="AD20" s="201" t="e">
         <f t="shared" si="6"/>
@@ -7237,7 +7237,7 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="33">
         <f>_xll.ohTrigger(Y7:Y61)</f>
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="34"/>
     </row>
@@ -7263,7 +7263,7 @@
       <c r="N6" s="234"/>
       <c r="O6" s="235" t="str">
         <f>_xll.RData(O7:O61,P6:S6,"RTFEED:IDN",ReutersRtMode,,P7)</f>
-        <v>Paused at 09:35:04</v>
+        <v>Updated at 16:46:14</v>
       </c>
       <c r="P6" s="190" t="s">
         <v>106</v>
@@ -7418,7 +7418,7 @@
         <v>153</v>
       </c>
       <c r="T8" s="46" t="e">
-        <f t="shared" ref="T8:T61" si="2">IF(ISERROR(AVERAGE(P8,Q8)),#NUM!,AVERAGE(P8,Q8))</f>
+        <f t="shared" ref="T8:T21" si="2">IF(ISERROR(AVERAGE(P8,Q8)),#NUM!,AVERAGE(P8,Q8))</f>
         <v>#NUM!</v>
       </c>
       <c r="U8" s="231"/>
@@ -7546,10 +7546,10 @@
         <v>SEKAMTNS1M=HBCO</v>
       </c>
       <c r="P10" s="46">
-        <v>-0.22799999999999998</v>
+        <v>-0.312</v>
       </c>
       <c r="Q10" s="46">
-        <v>-0.19800000000000001</v>
+        <v>-0.28200000000000003</v>
       </c>
       <c r="R10" s="46">
         <v>0</v>
@@ -7559,15 +7559,15 @@
       </c>
       <c r="T10" s="46">
         <f t="shared" si="2"/>
-        <v>-0.21299999999999999</v>
+        <v>-0.29700000000000004</v>
       </c>
       <c r="U10" s="231"/>
       <c r="V10" s="233">
-        <v>8.2000000000000003E-2</v>
+        <v>-0.29700000000000004</v>
       </c>
       <c r="W10" s="231"/>
       <c r="X10" s="46">
-        <v>-0.21299999999999999</v>
+        <v>-0.29700000000000004</v>
       </c>
       <c r="Y10" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
@@ -7617,10 +7617,10 @@
         <v>SEKAMTNS2M=HBCO</v>
       </c>
       <c r="P11" s="46">
-        <v>-0.23900000000000002</v>
+        <v>-0.32800000000000001</v>
       </c>
       <c r="Q11" s="46">
-        <v>-0.20899999999999999</v>
+        <v>-0.29799999999999999</v>
       </c>
       <c r="R11" s="46">
         <v>0</v>
@@ -7630,15 +7630,15 @@
       </c>
       <c r="T11" s="46">
         <f t="shared" si="2"/>
-        <v>-0.224</v>
+        <v>-0.313</v>
       </c>
       <c r="U11" s="231"/>
       <c r="V11" s="233">
-        <v>5.4999999999999993E-2</v>
+        <v>-0.313</v>
       </c>
       <c r="W11" s="231"/>
       <c r="X11" s="46">
-        <v>-0.224</v>
+        <v>-0.313</v>
       </c>
       <c r="Y11" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
@@ -7687,10 +7687,10 @@
         <v>SEKAMTNS3M=HBCO</v>
       </c>
       <c r="P12" s="46">
-        <v>-0.24700000000000003</v>
+        <v>-0.34900000000000003</v>
       </c>
       <c r="Q12" s="46">
-        <v>-0.217</v>
+        <v>-0.31900000000000001</v>
       </c>
       <c r="R12" s="46">
         <v>0</v>
@@ -7700,15 +7700,15 @@
       </c>
       <c r="T12" s="46">
         <f t="shared" si="2"/>
-        <v>-0.23200000000000001</v>
+        <v>-0.33400000000000002</v>
       </c>
       <c r="U12" s="231"/>
       <c r="V12" s="233">
-        <v>4.4000000000000004E-2</v>
+        <v>-0.33400000000000002</v>
       </c>
       <c r="W12" s="231"/>
       <c r="X12" s="46">
-        <v>-0.23200000000000001</v>
+        <v>-0.33400000000000002</v>
       </c>
       <c r="Y12" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
@@ -7757,10 +7757,10 @@
         <v>SEKAMTNS4M=HBCO</v>
       </c>
       <c r="P13" s="46">
-        <v>-0.252</v>
+        <v>-0.35899999999999999</v>
       </c>
       <c r="Q13" s="46">
-        <v>-0.22200000000000003</v>
+        <v>-0.32900000000000001</v>
       </c>
       <c r="R13" s="46">
         <v>0</v>
@@ -7770,15 +7770,15 @@
       </c>
       <c r="T13" s="46">
         <f t="shared" si="2"/>
-        <v>-0.23700000000000002</v>
+        <v>-0.34399999999999997</v>
       </c>
       <c r="U13" s="231"/>
       <c r="V13" s="233">
-        <v>3.8000000000000006E-2</v>
+        <v>-0.34399999999999997</v>
       </c>
       <c r="W13" s="231"/>
       <c r="X13" s="46">
-        <v>-0.23700000000000002</v>
+        <v>-0.34399999999999997</v>
       </c>
       <c r="Y13" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
@@ -7827,10 +7827,10 @@
         <v>SEKAMTNS5M=HBCO</v>
       </c>
       <c r="P14" s="46">
-        <v>-0.255</v>
+        <v>-0.36099999999999999</v>
       </c>
       <c r="Q14" s="46">
-        <v>-0.22500000000000001</v>
+        <v>-0.33100000000000002</v>
       </c>
       <c r="R14" s="46">
         <v>0</v>
@@ -7840,15 +7840,15 @@
       </c>
       <c r="T14" s="46">
         <f t="shared" si="2"/>
-        <v>-0.24</v>
+        <v>-0.34599999999999997</v>
       </c>
       <c r="U14" s="231"/>
       <c r="V14" s="233">
-        <v>3.4000000000000002E-2</v>
+        <v>-0.34599999999999997</v>
       </c>
       <c r="W14" s="231"/>
       <c r="X14" s="46">
-        <v>-0.24</v>
+        <v>-0.34599999999999997</v>
       </c>
       <c r="Y14" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F14,X14/100,Trigger)</f>
@@ -7897,10 +7897,10 @@
         <v>SEKAMTNS6M=HBCO</v>
       </c>
       <c r="P15" s="46">
-        <v>-0.25800000000000001</v>
+        <v>-0.36699999999999999</v>
       </c>
       <c r="Q15" s="46">
-        <v>-0.22799999999999998</v>
+        <v>-0.33700000000000002</v>
       </c>
       <c r="R15" s="46">
         <v>0</v>
@@ -7910,15 +7910,15 @@
       </c>
       <c r="T15" s="46">
         <f t="shared" si="2"/>
-        <v>-0.24299999999999999</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="U15" s="231"/>
       <c r="V15" s="233">
-        <v>3.2000000000000001E-2</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="W15" s="231"/>
       <c r="X15" s="46">
-        <v>-0.24299999999999999</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="Y15" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F15,X15/100,Trigger)</f>
@@ -8108,10 +8108,10 @@
         <v>SEKAMTNS9M=HBCO</v>
       </c>
       <c r="P18" s="46">
-        <v>-0.26100000000000001</v>
+        <v>-0.36799999999999999</v>
       </c>
       <c r="Q18" s="46">
-        <v>-0.23100000000000001</v>
+        <v>-0.33800000000000002</v>
       </c>
       <c r="R18" s="46">
         <v>0</v>
@@ -8121,15 +8121,15 @@
       </c>
       <c r="T18" s="46">
         <f t="shared" si="2"/>
-        <v>-0.246</v>
+        <v>-0.35299999999999998</v>
       </c>
       <c r="U18" s="231"/>
       <c r="V18" s="233">
-        <v>2.4E-2</v>
+        <v>-0.35299999999999998</v>
       </c>
       <c r="W18" s="231"/>
       <c r="X18" s="46">
-        <v>-0.246</v>
+        <v>-0.35299999999999998</v>
       </c>
       <c r="Y18" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F18,X18/100,Trigger)</f>
@@ -8319,10 +8319,10 @@
         <v>SEKAMTNS12M=HBCO</v>
       </c>
       <c r="P21" s="46">
-        <v>-0.254</v>
+        <v>-0.36699999999999999</v>
       </c>
       <c r="Q21" s="46">
-        <v>-0.22400000000000003</v>
+        <v>-0.33700000000000002</v>
       </c>
       <c r="R21" s="46">
         <v>0</v>
@@ -8332,15 +8332,15 @@
       </c>
       <c r="T21" s="46">
         <f t="shared" si="2"/>
-        <v>-0.23900000000000002</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="U21" s="231"/>
       <c r="V21" s="233">
-        <v>2.0999999999999998E-2</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="W21" s="231"/>
       <c r="X21" s="46">
-        <v>-0.23900000000000002</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="Y21" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F21,X21/100,Trigger)</f>
@@ -8388,7 +8388,7 @@
         <v>SEKAMTNS1Y=ICAP</v>
       </c>
       <c r="P22" s="39">
-        <v>-0.24</v>
+        <v>-0.32750000000000001</v>
       </c>
       <c r="Q22" s="39">
         <v>0</v>
@@ -8401,19 +8401,19 @@
       </c>
       <c r="T22" s="39">
         <f>IF(ISERROR(AVERAGE(P22,Q22)),#NUM!,IF($Q$5,P22,AVERAGE(P22,Q22)))</f>
-        <v>-0.24</v>
+        <v>-0.32750000000000001</v>
       </c>
       <c r="U22" s="231"/>
       <c r="V22" s="232">
-        <v>0.02</v>
+        <v>-0.32750000000000001</v>
       </c>
       <c r="W22" s="231"/>
       <c r="X22" s="39">
-        <v>-0.24</v>
+        <v>-0.32750000000000001</v>
       </c>
       <c r="Y22" s="41">
         <f>_xll.qlSimpleQuoteSetValue(F22,X22/100,Trigger)</f>
-        <v>-1.1999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="34"/>
     </row>
@@ -9229,7 +9229,7 @@
         <v>SEKAMTNS2Y=ICAP</v>
       </c>
       <c r="P34" s="46">
-        <v>-0.1925</v>
+        <v>-0.24750000000000003</v>
       </c>
       <c r="Q34" s="46">
         <v>0</v>
@@ -9242,19 +9242,19 @@
       </c>
       <c r="T34" s="46">
         <f t="shared" si="3"/>
-        <v>-0.1925</v>
+        <v>-0.24750000000000003</v>
       </c>
       <c r="U34" s="231"/>
       <c r="V34" s="233">
-        <v>2.2499999999999999E-2</v>
+        <v>-0.24750000000000003</v>
       </c>
       <c r="W34" s="231"/>
       <c r="X34" s="46">
-        <v>-0.1925</v>
+        <v>-0.24750000000000003</v>
       </c>
       <c r="Y34" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F34,X34/100,Trigger)</f>
-        <v>-5.9625000000000008E-3</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="34"/>
     </row>
@@ -9509,7 +9509,7 @@
         <v>SEKAMTNS3Y=ICAP</v>
       </c>
       <c r="P38" s="46">
-        <v>-7.7499999999999999E-2</v>
+        <v>-6.0000000000000005E-2</v>
       </c>
       <c r="Q38" s="46">
         <v>0</v>
@@ -9522,19 +9522,19 @@
       </c>
       <c r="T38" s="46">
         <f t="shared" si="3"/>
-        <v>-7.7499999999999999E-2</v>
+        <v>-6.0000000000000005E-2</v>
       </c>
       <c r="U38" s="231"/>
       <c r="V38" s="233">
-        <v>0.10249999999999999</v>
+        <v>-6.0000000000000005E-2</v>
       </c>
       <c r="W38" s="231"/>
       <c r="X38" s="46">
-        <v>-7.7499999999999999E-2</v>
+        <v>-6.0000000000000005E-2</v>
       </c>
       <c r="Y38" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F38,X38/100,Trigger)</f>
-        <v>-3.8749999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="34"/>
     </row>
@@ -9789,7 +9789,7 @@
         <v>SEKAMTNS4Y=ICAP</v>
       </c>
       <c r="P42" s="46">
-        <v>6.25E-2</v>
+        <v>0.15</v>
       </c>
       <c r="Q42" s="46">
         <v>0</v>
@@ -9802,19 +9802,19 @@
       </c>
       <c r="T42" s="46">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
+        <v>0.15</v>
       </c>
       <c r="U42" s="231"/>
       <c r="V42" s="233">
-        <v>0.20249999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="W42" s="231"/>
       <c r="X42" s="46">
-        <v>6.25E-2</v>
+        <v>0.15</v>
       </c>
       <c r="Y42" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F42,X42/100,Trigger)</f>
-        <v>3.1250000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="34"/>
     </row>
@@ -10069,7 +10069,7 @@
         <v>SEKAMTNS5Y=ICAP</v>
       </c>
       <c r="P46" s="46">
-        <v>0.20499999999999999</v>
+        <v>0.3775</v>
       </c>
       <c r="Q46" s="46">
         <v>0</v>
@@ -10082,19 +10082,19 @@
       </c>
       <c r="T46" s="46">
         <f t="shared" si="3"/>
-        <v>0.20499999999999999</v>
+        <v>0.3775</v>
       </c>
       <c r="U46" s="231"/>
       <c r="V46" s="233">
-        <v>0.32750000000000001</v>
+        <v>0.3775</v>
       </c>
       <c r="W46" s="231"/>
       <c r="X46" s="46">
-        <v>0.20499999999999999</v>
+        <v>0.3775</v>
       </c>
       <c r="Y46" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
-        <v>1.0249999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="34"/>
     </row>
@@ -10139,7 +10139,7 @@
         <v>SEKAMTNS6Y=ICAP</v>
       </c>
       <c r="P47" s="46">
-        <v>0.34249999999999997</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="Q47" s="46">
         <v>0</v>
@@ -10152,19 +10152,19 @@
       </c>
       <c r="T47" s="46">
         <f t="shared" si="3"/>
-        <v>0.34249999999999997</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="U47" s="231"/>
       <c r="V47" s="233">
-        <v>0.45750000000000002</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="W47" s="231"/>
       <c r="X47" s="46">
-        <v>0.34249999999999997</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="Y47" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>1.7124999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="34"/>
     </row>
@@ -10209,7 +10209,7 @@
         <v>SEKAMTNS7Y=ICAP</v>
       </c>
       <c r="P48" s="46">
-        <v>0.46749999999999997</v>
+        <v>0.77750000000000008</v>
       </c>
       <c r="Q48" s="46">
         <v>0</v>
@@ -10222,19 +10222,19 @@
       </c>
       <c r="T48" s="46">
         <f t="shared" si="3"/>
-        <v>0.46749999999999997</v>
+        <v>0.77750000000000008</v>
       </c>
       <c r="U48" s="231"/>
       <c r="V48" s="233">
-        <v>0.57999999999999996</v>
+        <v>0.77750000000000008</v>
       </c>
       <c r="W48" s="231"/>
       <c r="X48" s="46">
-        <v>0.46749999999999997</v>
+        <v>0.77750000000000008</v>
       </c>
       <c r="Y48" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>2.3374999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="34"/>
     </row>
@@ -10279,7 +10279,7 @@
         <v>SEKAMTNS8Y=ICAP</v>
       </c>
       <c r="P49" s="46">
-        <v>0.57499999999999996</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="Q49" s="46">
         <v>0</v>
@@ -10292,19 +10292,19 @@
       </c>
       <c r="T49" s="46">
         <f t="shared" si="3"/>
-        <v>0.57499999999999996</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="U49" s="231"/>
       <c r="V49" s="233">
-        <v>0.6875</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="W49" s="231"/>
       <c r="X49" s="46">
-        <v>0.57499999999999996</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="Y49" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>2.875E-3</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="34"/>
     </row>
@@ -10349,7 +10349,7 @@
         <v>SEKAMTNS9Y=ICAP</v>
       </c>
       <c r="P50" s="46">
-        <v>0.66249999999999998</v>
+        <v>1.0625</v>
       </c>
       <c r="Q50" s="46">
         <v>0</v>
@@ -10362,19 +10362,19 @@
       </c>
       <c r="T50" s="46">
         <f t="shared" si="3"/>
-        <v>0.66249999999999998</v>
+        <v>1.0625</v>
       </c>
       <c r="U50" s="231"/>
       <c r="V50" s="233">
-        <v>0.78249999999999997</v>
+        <v>1.0625</v>
       </c>
       <c r="W50" s="231"/>
       <c r="X50" s="46">
-        <v>0.66249999999999998</v>
+        <v>1.0625</v>
       </c>
       <c r="Y50" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>3.3124999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="34"/>
     </row>
@@ -10419,7 +10419,7 @@
         <v>SEKAMTNS10Y=ICAP</v>
       </c>
       <c r="P51" s="46">
-        <v>0.73250000000000004</v>
+        <v>1.1600000000000001</v>
       </c>
       <c r="Q51" s="46">
         <v>0</v>
@@ -10432,19 +10432,19 @@
       </c>
       <c r="T51" s="46">
         <f t="shared" si="3"/>
-        <v>0.73250000000000004</v>
+        <v>1.1600000000000001</v>
       </c>
       <c r="U51" s="231"/>
       <c r="V51" s="233">
-        <v>0.86999999999999988</v>
+        <v>1.1600000000000001</v>
       </c>
       <c r="W51" s="231"/>
       <c r="X51" s="46">
-        <v>0.73250000000000004</v>
+        <v>1.1600000000000001</v>
       </c>
       <c r="Y51" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>3.6625000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="34"/>
     </row>
@@ -10489,7 +10489,7 @@
         <v>SEKAMTNS12Y=ICAP</v>
       </c>
       <c r="P52" s="46">
-        <v>0.85749999999999993</v>
+        <v>1.3150000000000002</v>
       </c>
       <c r="Q52" s="46">
         <v>0</v>
@@ -10502,19 +10502,19 @@
       </c>
       <c r="T52" s="46">
         <f t="shared" si="3"/>
-        <v>0.85749999999999993</v>
+        <v>1.3150000000000002</v>
       </c>
       <c r="U52" s="231"/>
       <c r="V52" s="233">
-        <v>1.02</v>
+        <v>1.3150000000000002</v>
       </c>
       <c r="W52" s="231"/>
       <c r="X52" s="46">
-        <v>0.85749999999999993</v>
+        <v>1.3150000000000002</v>
       </c>
       <c r="Y52" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
-        <v>4.2874999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="34"/>
     </row>
@@ -10559,7 +10559,7 @@
         <v>SEKAMTNS15Y=ICAP</v>
       </c>
       <c r="P53" s="46">
-        <v>0.99749999999999994</v>
+        <v>1.4825000000000002</v>
       </c>
       <c r="Q53" s="46">
         <v>0</v>
@@ -10572,19 +10572,19 @@
       </c>
       <c r="T53" s="46">
         <f t="shared" si="3"/>
-        <v>0.99749999999999994</v>
+        <v>1.4825000000000002</v>
       </c>
       <c r="U53" s="231"/>
       <c r="V53" s="233">
-        <v>1.1950000000000001</v>
+        <v>1.4825000000000002</v>
       </c>
       <c r="W53" s="231"/>
       <c r="X53" s="46">
-        <v>0.99749999999999994</v>
+        <v>1.4825000000000002</v>
       </c>
       <c r="Y53" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F53,X53/100,Trigger)</f>
-        <v>4.9874999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="34"/>
     </row>
@@ -10629,7 +10629,7 @@
         <v>SEKAMTNS20Y=ICAP</v>
       </c>
       <c r="P54" s="46">
-        <v>1.1675</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="Q54" s="46">
         <v>0</v>
@@ -10642,19 +10642,19 @@
       </c>
       <c r="T54" s="46">
         <f t="shared" si="3"/>
-        <v>1.1675</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="U54" s="231"/>
       <c r="V54" s="233">
-        <v>1.3900000000000001</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="W54" s="231"/>
       <c r="X54" s="46">
-        <v>1.1675</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="Y54" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
-        <v>5.8374999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="34"/>
     </row>
@@ -10699,7 +10699,7 @@
         <v>SEKAMTNS25Y=ICAP</v>
       </c>
       <c r="P55" s="46">
-        <v>1.2575000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="Q55" s="46">
         <v>0</v>
@@ -10712,19 +10712,19 @@
       </c>
       <c r="T55" s="46">
         <f t="shared" si="3"/>
-        <v>1.2575000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="U55" s="231"/>
       <c r="V55" s="233">
-        <v>1.4675</v>
+        <v>1.76</v>
       </c>
       <c r="W55" s="231"/>
       <c r="X55" s="46">
-        <v>1.2575000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="Y55" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F55,X55/100,Trigger)</f>
-        <v>6.2875000000000006E-3</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="34"/>
     </row>
@@ -10839,7 +10839,7 @@
         <v>SEKAMTNS30Y=ICAP</v>
       </c>
       <c r="P57" s="46">
-        <v>1.2925</v>
+        <v>1.8</v>
       </c>
       <c r="Q57" s="46">
         <v>0</v>
@@ -10852,19 +10852,19 @@
       </c>
       <c r="T57" s="46">
         <f t="shared" si="3"/>
-        <v>1.2925</v>
+        <v>1.8</v>
       </c>
       <c r="U57" s="231"/>
       <c r="V57" s="233">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="W57" s="231"/>
       <c r="X57" s="46">
-        <v>1.2925</v>
+        <v>1.8</v>
       </c>
       <c r="Y57" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F57,X57/100,Trigger)</f>
-        <v>6.4624999999999995E-3</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="34"/>
     </row>
@@ -11448,7 +11448,7 @@
       <c r="O5" s="234"/>
       <c r="P5" s="235" t="str">
         <f>_xll.RData(P6:P59,Q5:T5,"RTFEED:IDN",ReutersRtMode,,Q6)</f>
-        <v>Paused at 09:35:04</v>
+        <v>Updated at 16:46:14</v>
       </c>
       <c r="Q5" s="190" t="s">
         <v>106</v>
@@ -12549,10 +12549,10 @@
         <v>SEKAB3S1Y=ICAP</v>
       </c>
       <c r="Q20" s="46">
-        <v>-0.12250000000000001</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="R20" s="46">
-        <v>-7.2499999999999995E-2</v>
+        <v>-0.215</v>
       </c>
       <c r="S20" s="46">
         <v>0</v>
@@ -12562,19 +12562,19 @@
       </c>
       <c r="U20" s="46">
         <f t="shared" si="2"/>
-        <v>-9.7500000000000003E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="V20" s="231"/>
       <c r="W20" s="233">
-        <v>0.21249999999999999</v>
+        <v>-0.24</v>
       </c>
       <c r="X20" s="231"/>
       <c r="Y20" s="46">
-        <v>-9.7500000000000003E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="Z20" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G20,Y20/100,Trigger)</f>
-        <v>-1.4250000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="34"/>
     </row>
@@ -13426,10 +13426,10 @@
         <v>SEKAB3S2Y=ICAP</v>
       </c>
       <c r="Q32" s="46">
-        <v>-6.7500000000000004E-2</v>
+        <v>-0.1575</v>
       </c>
       <c r="R32" s="46">
-        <v>-1.7499999999999998E-2</v>
+        <v>-0.1075</v>
       </c>
       <c r="S32" s="46">
         <v>0</v>
@@ -13439,19 +13439,19 @@
       </c>
       <c r="U32" s="46">
         <f t="shared" si="2"/>
-        <v>-4.2500000000000003E-2</v>
+        <v>-0.13250000000000001</v>
       </c>
       <c r="V32" s="231"/>
       <c r="W32" s="233">
-        <v>0.22500000000000001</v>
+        <v>-0.13250000000000001</v>
       </c>
       <c r="X32" s="231"/>
       <c r="Y32" s="46">
-        <v>-4.2500000000000003E-2</v>
+        <v>-0.13250000000000001</v>
       </c>
       <c r="Z32" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G32,Y32/100,Trigger)</f>
-        <v>-1.2750000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="34"/>
     </row>
@@ -13718,10 +13718,10 @@
         <v>SEKAB3S3Y=ICAP</v>
       </c>
       <c r="Q36" s="46">
-        <v>5.7499999999999996E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="R36" s="46">
-        <v>0.1075</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="S36" s="46">
         <v>0</v>
@@ -13731,19 +13731,19 @@
       </c>
       <c r="U36" s="46">
         <f t="shared" si="2"/>
-        <v>8.249999999999999E-2</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="V36" s="231"/>
       <c r="W36" s="233">
-        <v>0.3125</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="X36" s="231"/>
       <c r="Y36" s="46">
-        <v>8.249999999999999E-2</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="Z36" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G36,Y36/100,Trigger)</f>
-        <v>-9.7500000000000006E-4</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="34"/>
     </row>
@@ -14010,10 +14010,10 @@
         <v>SEKAB3S4Y=ICAP</v>
       </c>
       <c r="Q40" s="46">
-        <v>0.20499999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="R40" s="46">
-        <v>0.255</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="S40" s="46">
         <v>0</v>
@@ -14023,19 +14023,19 @@
       </c>
       <c r="U40" s="46">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="V40" s="231"/>
       <c r="W40" s="233">
-        <v>0.42749999999999999</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="X40" s="231"/>
       <c r="Y40" s="46">
-        <v>0.22999999999999998</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="Z40" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G40,Y40/100,Trigger)</f>
-        <v>-7.2499999999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="34"/>
     </row>
@@ -14302,10 +14302,10 @@
         <v>SEKAB3S5Y=ICAP</v>
       </c>
       <c r="Q44" s="46">
-        <v>0.35249999999999998</v>
+        <v>0.505</v>
       </c>
       <c r="R44" s="46">
-        <v>0.40250000000000002</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="S44" s="46">
         <v>0</v>
@@ -14315,19 +14315,19 @@
       </c>
       <c r="U44" s="46">
         <f t="shared" si="2"/>
-        <v>0.3775</v>
+        <v>0.53</v>
       </c>
       <c r="V44" s="231"/>
       <c r="W44" s="233">
-        <v>0.56500000000000006</v>
+        <v>0.53</v>
       </c>
       <c r="X44" s="231"/>
       <c r="Y44" s="46">
-        <v>0.3775</v>
+        <v>0.53</v>
       </c>
       <c r="Z44" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G44,Y44/100,Trigger)</f>
-        <v>-6.0000000000000027E-4</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="34"/>
     </row>
@@ -14375,10 +14375,10 @@
         <v>SEKAB3S6Y=ICAP</v>
       </c>
       <c r="Q45" s="46">
-        <v>0.495</v>
+        <v>0.71500000000000008</v>
       </c>
       <c r="R45" s="46">
-        <v>0.54500000000000004</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="S45" s="46">
         <v>0</v>
@@ -14388,19 +14388,19 @@
       </c>
       <c r="U45" s="46">
         <f t="shared" si="2"/>
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="V45" s="231"/>
       <c r="W45" s="233">
-        <v>0.69750000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="X45" s="231"/>
       <c r="Y45" s="46">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="Z45" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G45,Y45/100,Trigger)</f>
-        <v>-5.0000000000000044E-4</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="34"/>
     </row>
@@ -14448,10 +14448,10 @@
         <v>SEKAB3S7Y=ICAP</v>
       </c>
       <c r="Q46" s="46">
-        <v>0.62</v>
+        <v>0.90250000000000008</v>
       </c>
       <c r="R46" s="46">
-        <v>0.67</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="S46" s="46">
         <v>0</v>
@@ -14461,19 +14461,19 @@
       </c>
       <c r="U46" s="46">
         <f t="shared" si="2"/>
-        <v>0.64500000000000002</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="V46" s="231"/>
       <c r="W46" s="233">
-        <v>0.82250000000000001</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="X46" s="231"/>
       <c r="Y46" s="46">
-        <v>0.64500000000000002</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="Z46" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G46,Y46/100,Trigger)</f>
-        <v>-5.5000000000000101E-4</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="34"/>
     </row>
@@ -14521,10 +14521,10 @@
         <v>SEKAB3S8Y=ICAP</v>
       </c>
       <c r="Q47" s="46">
-        <v>0.72750000000000004</v>
+        <v>1.06</v>
       </c>
       <c r="R47" s="46">
-        <v>0.77750000000000008</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="S47" s="46">
         <v>0</v>
@@ -14534,19 +14534,19 @@
       </c>
       <c r="U47" s="46">
         <f t="shared" si="2"/>
-        <v>0.75250000000000006</v>
+        <v>1.085</v>
       </c>
       <c r="V47" s="231"/>
       <c r="W47" s="233">
-        <v>0.93</v>
+        <v>1.085</v>
       </c>
       <c r="X47" s="231"/>
       <c r="Y47" s="46">
-        <v>0.75250000000000006</v>
+        <v>1.085</v>
       </c>
       <c r="Z47" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G47,Y47/100,Trigger)</f>
-        <v>-6.2500000000000056E-4</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="34"/>
     </row>
@@ -14594,10 +14594,10 @@
         <v>SEKAB3S9Y=ICAP</v>
       </c>
       <c r="Q48" s="46">
-        <v>0.81500000000000006</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="R48" s="46">
-        <v>0.86499999999999999</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="S48" s="46">
         <v>0</v>
@@ -14607,19 +14607,19 @@
       </c>
       <c r="U48" s="46">
         <f t="shared" si="2"/>
-        <v>0.84000000000000008</v>
+        <v>1.21</v>
       </c>
       <c r="V48" s="231"/>
       <c r="W48" s="233">
-        <v>1.0249999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="X48" s="231"/>
       <c r="Y48" s="46">
-        <v>0.84000000000000008</v>
+        <v>1.21</v>
       </c>
       <c r="Z48" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G48,Y48/100,Trigger)</f>
-        <v>-7.2499999999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="34"/>
     </row>
@@ -14667,10 +14667,10 @@
         <v>SEKAB3S10Y=ICAP</v>
       </c>
       <c r="Q49" s="46">
-        <v>0.88500000000000001</v>
+        <v>1.2825</v>
       </c>
       <c r="R49" s="46">
-        <v>0.93499999999999994</v>
+        <v>1.3325</v>
       </c>
       <c r="S49" s="46">
         <v>0</v>
@@ -14680,19 +14680,19 @@
       </c>
       <c r="U49" s="46">
         <f t="shared" si="2"/>
-        <v>0.90999999999999992</v>
+        <v>1.3075000000000001</v>
       </c>
       <c r="V49" s="231"/>
       <c r="W49" s="233">
-        <v>1.1099999999999999</v>
+        <v>1.3075000000000001</v>
       </c>
       <c r="X49" s="231"/>
       <c r="Y49" s="46">
-        <v>0.90999999999999992</v>
+        <v>1.3075000000000001</v>
       </c>
       <c r="Z49" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G49,Y49/100,Trigger)</f>
-        <v>-8.500000000000018E-4</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="34"/>
     </row>
@@ -14740,10 +14740,10 @@
         <v>SEKAB3S12Y=ICAP</v>
       </c>
       <c r="Q50" s="46">
-        <v>1.0024999999999999</v>
+        <v>1.4275</v>
       </c>
       <c r="R50" s="46">
-        <v>1.0625</v>
+        <v>1.4875</v>
       </c>
       <c r="S50" s="46">
         <v>0</v>
@@ -14753,19 +14753,19 @@
       </c>
       <c r="U50" s="46">
         <f t="shared" si="2"/>
-        <v>1.0325</v>
+        <v>1.4575</v>
       </c>
       <c r="V50" s="231"/>
       <c r="W50" s="233">
-        <v>1.26</v>
+        <v>1.4575</v>
       </c>
       <c r="X50" s="231"/>
       <c r="Y50" s="46">
-        <v>1.0325</v>
+        <v>1.4575</v>
       </c>
       <c r="Z50" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G50,Y50/100,Trigger)</f>
-        <v>-1.0250000000000016E-3</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="34"/>
     </row>
@@ -14813,10 +14813,10 @@
         <v>SEKAB3S15Y=ICAP</v>
       </c>
       <c r="Q51" s="46">
-        <v>1.1399999999999999</v>
+        <v>1.5925</v>
       </c>
       <c r="R51" s="46">
-        <v>1.2</v>
+        <v>1.6525000000000001</v>
       </c>
       <c r="S51" s="46">
         <v>0</v>
@@ -14826,19 +14826,19 @@
       </c>
       <c r="U51" s="46">
         <f t="shared" si="2"/>
-        <v>1.17</v>
+        <v>1.6225000000000001</v>
       </c>
       <c r="V51" s="231"/>
       <c r="W51" s="233">
-        <v>1.43</v>
+        <v>1.6225000000000001</v>
       </c>
       <c r="X51" s="231"/>
       <c r="Y51" s="46">
-        <v>1.17</v>
+        <v>1.6225000000000001</v>
       </c>
       <c r="Z51" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G51,Y51/100,Trigger)</f>
-        <v>-1.3000000000000025E-3</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="34"/>
     </row>
@@ -14886,10 +14886,10 @@
         <v>SEKAB3S20Y=ICAP</v>
       </c>
       <c r="Q52" s="46">
-        <v>1.2850000000000001</v>
+        <v>1.7550000000000001</v>
       </c>
       <c r="R52" s="46">
-        <v>1.365</v>
+        <v>1.8350000000000002</v>
       </c>
       <c r="S52" s="46">
         <v>0</v>
@@ -14899,19 +14899,19 @@
       </c>
       <c r="U52" s="46">
         <f t="shared" si="2"/>
-        <v>1.3250000000000002</v>
+        <v>1.7950000000000002</v>
       </c>
       <c r="V52" s="231"/>
       <c r="W52" s="233">
-        <v>1.615</v>
+        <v>1.7950000000000002</v>
       </c>
       <c r="X52" s="231"/>
       <c r="Y52" s="46">
-        <v>1.3250000000000002</v>
+        <v>1.7950000000000002</v>
       </c>
       <c r="Z52" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G52,Y52/100,Trigger)</f>
-        <v>-1.599999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="34"/>
     </row>
@@ -14959,10 +14959,10 @@
         <v>SEKAB3S25Y=ICAP</v>
       </c>
       <c r="Q53" s="46">
-        <v>1.3599999999999999</v>
+        <v>1.8350000000000002</v>
       </c>
       <c r="R53" s="46">
-        <v>1.44</v>
+        <v>1.915</v>
       </c>
       <c r="S53" s="46">
         <v>0</v>
@@ -14972,19 +14972,19 @@
       </c>
       <c r="U53" s="46">
         <f t="shared" si="2"/>
-        <v>1.4</v>
+        <v>1.875</v>
       </c>
       <c r="V53" s="231"/>
       <c r="W53" s="233">
-        <v>1.6850000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X53" s="231"/>
       <c r="Y53" s="46">
-        <v>1.4</v>
+        <v>1.875</v>
       </c>
       <c r="Z53" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G53,Y53/100,Trigger)</f>
-        <v>-1.5500000000000028E-3</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="34"/>
     </row>
@@ -15105,10 +15105,10 @@
         <v>SEKAB3S30Y=ICAP</v>
       </c>
       <c r="Q55" s="46">
-        <v>1.375</v>
+        <v>1.855</v>
       </c>
       <c r="R55" s="46">
-        <v>1.4750000000000001</v>
+        <v>1.9550000000000001</v>
       </c>
       <c r="S55" s="46">
         <v>0</v>
@@ -15118,19 +15118,19 @@
       </c>
       <c r="U55" s="46">
         <f t="shared" si="2"/>
-        <v>1.425</v>
+        <v>1.905</v>
       </c>
       <c r="V55" s="231"/>
       <c r="W55" s="233">
-        <v>1.7050000000000001</v>
+        <v>1.905</v>
       </c>
       <c r="X55" s="231"/>
       <c r="Y55" s="46">
-        <v>1.425</v>
+        <v>1.905</v>
       </c>
       <c r="Z55" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G55,Y55/100,Trigger)</f>
-        <v>-1.4999999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="34"/>
     </row>
@@ -15727,7 +15727,7 @@
       <c r="O5" s="234"/>
       <c r="P5" s="235" t="str">
         <f>_xll.RData(P6:P59,Q5:T5,"RTFEED:IDN",ReutersRtMode,,Q6)</f>
-        <v>Paused at 09:35:04</v>
+        <v>Updated at 16:46:14</v>
       </c>
       <c r="Q5" s="190" t="s">
         <v>106</v>
@@ -16828,7 +16828,7 @@
         <v>SEK3S6S1Y=ICAP</v>
       </c>
       <c r="Q20" s="46">
-        <v>6.91</v>
+        <v>8.31</v>
       </c>
       <c r="R20" s="46">
         <v>0</v>
@@ -16841,19 +16841,19 @@
       </c>
       <c r="U20" s="46">
         <f t="shared" si="2"/>
-        <v>6.91</v>
+        <v>8.31</v>
       </c>
       <c r="V20" s="231"/>
       <c r="W20" s="233">
-        <v>9.7899999999999991</v>
+        <v>8.31</v>
       </c>
       <c r="X20" s="231"/>
       <c r="Y20" s="46">
-        <v>6.91</v>
+        <v>8.31</v>
       </c>
       <c r="Z20" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G20,Y20/10000,Trigger)</f>
-        <v>-1.6600000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="34"/>
     </row>
@@ -17705,7 +17705,7 @@
         <v>SEK3S6S2Y=ICAP</v>
       </c>
       <c r="Q32" s="46">
-        <v>8.44</v>
+        <v>9.15</v>
       </c>
       <c r="R32" s="46">
         <v>0</v>
@@ -17718,19 +17718,19 @@
       </c>
       <c r="U32" s="46">
         <f t="shared" si="2"/>
-        <v>8.44</v>
+        <v>9.15</v>
       </c>
       <c r="V32" s="231"/>
       <c r="W32" s="233">
-        <v>9.89</v>
+        <v>9.15</v>
       </c>
       <c r="X32" s="231"/>
       <c r="Y32" s="46">
-        <v>8.44</v>
+        <v>9.15</v>
       </c>
       <c r="Z32" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G32,Y32/10000,Trigger)</f>
-        <v>-8.3999999999999982E-5</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="34"/>
     </row>
@@ -17997,7 +17997,7 @@
         <v>SEK3S6S3Y=ICAP</v>
       </c>
       <c r="Q36" s="46">
-        <v>8.9499999999999993</v>
+        <v>9.41</v>
       </c>
       <c r="R36" s="46">
         <v>0</v>
@@ -18010,19 +18010,19 @@
       </c>
       <c r="U36" s="46">
         <f t="shared" si="2"/>
-        <v>8.9499999999999993</v>
+        <v>9.41</v>
       </c>
       <c r="V36" s="231"/>
       <c r="W36" s="233">
-        <v>9.92</v>
+        <v>9.41</v>
       </c>
       <c r="X36" s="231"/>
       <c r="Y36" s="46">
-        <v>8.9499999999999993</v>
+        <v>9.41</v>
       </c>
       <c r="Z36" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G36,Y36/10000,Trigger)</f>
-        <v>-5.600000000000006E-5</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="34"/>
     </row>
@@ -18289,7 +18289,7 @@
         <v>SEK3S6S4Y=ICAP</v>
       </c>
       <c r="Q40" s="46">
-        <v>9.19</v>
+        <v>9.52</v>
       </c>
       <c r="R40" s="46">
         <v>0</v>
@@ -18302,19 +18302,19 @@
       </c>
       <c r="U40" s="46">
         <f t="shared" si="2"/>
-        <v>9.19</v>
+        <v>9.52</v>
       </c>
       <c r="V40" s="231"/>
       <c r="W40" s="233">
-        <v>9.92</v>
+        <v>9.52</v>
       </c>
       <c r="X40" s="231"/>
       <c r="Y40" s="46">
-        <v>9.19</v>
+        <v>9.52</v>
       </c>
       <c r="Z40" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G40,Y40/10000,Trigger)</f>
-        <v>-4.1999999999999937E-5</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="34"/>
     </row>
@@ -18581,7 +18581,7 @@
         <v>SEK3S6S5Y=ICAP</v>
       </c>
       <c r="Q44" s="46">
-        <v>9.32</v>
+        <v>9.57</v>
       </c>
       <c r="R44" s="46">
         <v>0</v>
@@ -18594,19 +18594,19 @@
       </c>
       <c r="U44" s="46">
         <f t="shared" si="2"/>
-        <v>9.32</v>
+        <v>9.57</v>
       </c>
       <c r="V44" s="231"/>
       <c r="W44" s="233">
-        <v>9.91</v>
+        <v>9.57</v>
       </c>
       <c r="X44" s="231"/>
       <c r="Y44" s="46">
-        <v>9.32</v>
+        <v>9.57</v>
       </c>
       <c r="Z44" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G44,Y44/10000,Trigger)</f>
-        <v>-3.4000000000000067E-5</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="34"/>
     </row>
@@ -18654,7 +18654,7 @@
         <v>SEK3S6S6Y=ICAP</v>
       </c>
       <c r="Q45" s="46">
-        <v>9.39</v>
+        <v>9.59</v>
       </c>
       <c r="R45" s="46">
         <v>0</v>
@@ -18667,19 +18667,19 @@
       </c>
       <c r="U45" s="46">
         <f t="shared" si="2"/>
-        <v>9.39</v>
+        <v>9.59</v>
       </c>
       <c r="V45" s="231"/>
       <c r="W45" s="233">
-        <v>9.89</v>
+        <v>9.59</v>
       </c>
       <c r="X45" s="231"/>
       <c r="Y45" s="46">
-        <v>9.39</v>
+        <v>9.59</v>
       </c>
       <c r="Z45" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G45,Y45/10000,Trigger)</f>
-        <v>-2.8999999999999946E-5</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="34"/>
     </row>
@@ -18727,7 +18727,7 @@
         <v>SEK3S6S7Y=ICAP</v>
       </c>
       <c r="Q46" s="46">
-        <v>9.44</v>
+        <v>9.59</v>
       </c>
       <c r="R46" s="46">
         <v>0</v>
@@ -18740,19 +18740,19 @@
       </c>
       <c r="U46" s="46">
         <f t="shared" si="2"/>
-        <v>9.44</v>
+        <v>9.59</v>
       </c>
       <c r="V46" s="231"/>
       <c r="W46" s="233">
-        <v>9.8699999999999992</v>
+        <v>9.59</v>
       </c>
       <c r="X46" s="231"/>
       <c r="Y46" s="46">
-        <v>9.44</v>
+        <v>9.59</v>
       </c>
       <c r="Z46" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G46,Y46/10000,Trigger)</f>
-        <v>-2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="34"/>
     </row>
@@ -18800,7 +18800,7 @@
         <v>SEK3S6S8Y=ICAP</v>
       </c>
       <c r="Q47" s="46">
-        <v>9.4700000000000006</v>
+        <v>9.58</v>
       </c>
       <c r="R47" s="46">
         <v>0</v>
@@ -18813,19 +18813,19 @@
       </c>
       <c r="U47" s="46">
         <f t="shared" si="2"/>
-        <v>9.4700000000000006</v>
+        <v>9.58</v>
       </c>
       <c r="V47" s="231"/>
       <c r="W47" s="233">
-        <v>9.85</v>
+        <v>9.58</v>
       </c>
       <c r="X47" s="231"/>
       <c r="Y47" s="46">
-        <v>9.4700000000000006</v>
+        <v>9.58</v>
       </c>
       <c r="Z47" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G47,Y47/10000,Trigger)</f>
-        <v>-2.1999999999999884E-5</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="34"/>
     </row>
@@ -18873,7 +18873,7 @@
         <v>SEK3S6S9Y=ICAP</v>
       </c>
       <c r="Q48" s="46">
-        <v>9.49</v>
+        <v>9.57</v>
       </c>
       <c r="R48" s="46">
         <v>0</v>
@@ -18886,19 +18886,19 @@
       </c>
       <c r="U48" s="46">
         <f t="shared" si="2"/>
-        <v>9.49</v>
+        <v>9.57</v>
       </c>
       <c r="V48" s="231"/>
       <c r="W48" s="233">
-        <v>9.83</v>
+        <v>9.57</v>
       </c>
       <c r="X48" s="231"/>
       <c r="Y48" s="46">
-        <v>9.49</v>
+        <v>9.57</v>
       </c>
       <c r="Z48" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G48,Y48/10000,Trigger)</f>
-        <v>-1.9000000000000028E-5</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="34"/>
     </row>
@@ -18946,7 +18946,7 @@
         <v>SEK3S6S10Y=ICAP</v>
       </c>
       <c r="Q49" s="46">
-        <v>9.4600000000000009</v>
+        <v>9.52</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -18959,19 +18959,19 @@
       </c>
       <c r="U49" s="46">
         <f t="shared" si="2"/>
-        <v>9.4600000000000009</v>
+        <v>9.52</v>
       </c>
       <c r="V49" s="231"/>
       <c r="W49" s="233">
-        <v>9.76</v>
+        <v>9.52</v>
       </c>
       <c r="X49" s="231"/>
       <c r="Y49" s="46">
-        <v>9.4600000000000009</v>
+        <v>9.52</v>
       </c>
       <c r="Z49" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G49,Y49/10000,Trigger)</f>
-        <v>-1.699999999999998E-5</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="34"/>
     </row>
@@ -19019,7 +19019,7 @@
         <v>SEK3S6S12Y=ICAP</v>
       </c>
       <c r="Q50" s="46">
-        <v>9.23</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="R50" s="46">
         <v>0</v>
@@ -19032,19 +19032,19 @@
       </c>
       <c r="U50" s="46">
         <f t="shared" si="2"/>
-        <v>9.23</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="V50" s="231"/>
       <c r="W50" s="233">
-        <v>9.4700000000000006</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="X50" s="231"/>
       <c r="Y50" s="46">
-        <v>9.23</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="Z50" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G50,Y50/10000,Trigger)</f>
-        <v>-1.4000000000000123E-5</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="34"/>
     </row>
@@ -19092,7 +19092,7 @@
         <v>SEK3S6S15Y=ICAP</v>
       </c>
       <c r="Q51" s="46">
-        <v>8.58</v>
+        <v>8.620000000000001</v>
       </c>
       <c r="R51" s="46">
         <v>0</v>
@@ -19105,19 +19105,19 @@
       </c>
       <c r="U51" s="46">
         <f t="shared" si="2"/>
-        <v>8.58</v>
+        <v>8.620000000000001</v>
       </c>
       <c r="V51" s="231"/>
       <c r="W51" s="233">
-        <v>8.77</v>
+        <v>8.620000000000001</v>
       </c>
       <c r="X51" s="231"/>
       <c r="Y51" s="46">
-        <v>8.58</v>
+        <v>8.620000000000001</v>
       </c>
       <c r="Z51" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G51,Y51/10000,Trigger)</f>
-        <v>-9.9999999999999178E-6</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="34"/>
     </row>
@@ -19165,7 +19165,7 @@
         <v>SEK3S6S20Y=ICAP</v>
       </c>
       <c r="Q52" s="46">
-        <v>7.57</v>
+        <v>7.6400000000000006</v>
       </c>
       <c r="R52" s="46">
         <v>0</v>
@@ -19178,19 +19178,19 @@
       </c>
       <c r="U52" s="46">
         <f t="shared" si="2"/>
-        <v>7.57</v>
+        <v>7.6400000000000006</v>
       </c>
       <c r="V52" s="231"/>
       <c r="W52" s="233">
-        <v>7.73</v>
+        <v>7.6400000000000006</v>
       </c>
       <c r="X52" s="231"/>
       <c r="Y52" s="46">
-        <v>7.57</v>
+        <v>7.6400000000000006</v>
       </c>
       <c r="Z52" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G52,Y52/10000,Trigger)</f>
-        <v>-7.9999999999999776E-6</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="34"/>
     </row>
@@ -19238,7 +19238,7 @@
         <v>SEK3S6S25Y=ICAP</v>
       </c>
       <c r="Q53" s="46">
-        <v>6.83</v>
+        <v>6.93</v>
       </c>
       <c r="R53" s="46">
         <v>0</v>
@@ -19251,19 +19251,19 @@
       </c>
       <c r="U53" s="46">
         <f t="shared" si="2"/>
-        <v>6.83</v>
+        <v>6.93</v>
       </c>
       <c r="V53" s="231"/>
       <c r="W53" s="233">
-        <v>6.99</v>
+        <v>6.93</v>
       </c>
       <c r="X53" s="231"/>
       <c r="Y53" s="46">
-        <v>6.83</v>
+        <v>6.93</v>
       </c>
       <c r="Z53" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G53,Y53/10000,Trigger)</f>
-        <v>-9.0000000000000019E-6</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="34"/>
     </row>
@@ -19384,7 +19384,7 @@
         <v>SEK3S6S30Y=ICAP</v>
       </c>
       <c r="Q55" s="46">
-        <v>6.23</v>
+        <v>6.3500000000000005</v>
       </c>
       <c r="R55" s="46">
         <v>0</v>
@@ -19397,19 +19397,19 @@
       </c>
       <c r="U55" s="46">
         <f t="shared" si="2"/>
-        <v>6.23</v>
+        <v>6.3500000000000005</v>
       </c>
       <c r="V55" s="231"/>
       <c r="W55" s="233">
-        <v>6.4</v>
+        <v>6.3500000000000005</v>
       </c>
       <c r="X55" s="231"/>
       <c r="Y55" s="46">
-        <v>6.23</v>
+        <v>6.3500000000000005</v>
       </c>
       <c r="Z55" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G55,Y55/10000,Trigger)</f>
-        <v>-9.0000000000000019E-6</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="34"/>
     </row>
@@ -20006,7 +20006,7 @@
       <c r="O5" s="234"/>
       <c r="P5" s="235" t="str">
         <f>_xll.RData(P6:P59,Q5:T5,"RTFEED:IDN",ReutersRtMode,,Q6)</f>
-        <v>Paused at 09:35:04</v>
+        <v>Updated at 16:46:14</v>
       </c>
       <c r="Q5" s="190" t="s">
         <v>106</v>
@@ -21107,7 +21107,7 @@
         <v>SEK1S3S1Y=ICAP</v>
       </c>
       <c r="Q20" s="46">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="R20" s="46">
         <v>0</v>
@@ -21120,19 +21120,19 @@
       </c>
       <c r="U20" s="46">
         <f t="shared" si="2"/>
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="V20" s="231"/>
       <c r="W20" s="233">
-        <v>8.02</v>
+        <v>7.99</v>
       </c>
       <c r="X20" s="231"/>
       <c r="Y20" s="46">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="Z20" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G20,Y20/10000,Trigger)</f>
-        <v>-4.9999999999999047E-6</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="34"/>
     </row>
@@ -21984,7 +21984,7 @@
         <v>SEK1S3S2Y=ICAP</v>
       </c>
       <c r="Q32" s="46">
-        <v>9.23</v>
+        <v>9.24</v>
       </c>
       <c r="R32" s="46">
         <v>0</v>
@@ -21997,19 +21997,19 @@
       </c>
       <c r="U32" s="46">
         <f t="shared" si="2"/>
-        <v>9.23</v>
+        <v>9.24</v>
       </c>
       <c r="V32" s="231"/>
       <c r="W32" s="233">
-        <v>9.27</v>
+        <v>9.24</v>
       </c>
       <c r="X32" s="231"/>
       <c r="Y32" s="46">
-        <v>9.23</v>
+        <v>9.24</v>
       </c>
       <c r="Z32" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G32,Y32/10000,Trigger)</f>
-        <v>-3.9999999999999888E-6</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="34"/>
     </row>
@@ -22293,7 +22293,7 @@
       </c>
       <c r="V36" s="231"/>
       <c r="W36" s="233">
-        <v>9.83</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="X36" s="231"/>
       <c r="Y36" s="46">
@@ -22301,7 +22301,7 @@
       </c>
       <c r="Z36" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G36,Y36/10000,Trigger)</f>
-        <v>-2.9999999999999645E-6</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="34"/>
     </row>
@@ -22568,7 +22568,7 @@
         <v>SEK1S3S4Y=ICAP</v>
       </c>
       <c r="Q40" s="46">
-        <v>10.08</v>
+        <v>10.06</v>
       </c>
       <c r="R40" s="46">
         <v>0</v>
@@ -22581,19 +22581,19 @@
       </c>
       <c r="U40" s="46">
         <f t="shared" si="2"/>
-        <v>10.08</v>
+        <v>10.06</v>
       </c>
       <c r="V40" s="231"/>
       <c r="W40" s="233">
-        <v>10.1</v>
+        <v>10.06</v>
       </c>
       <c r="X40" s="231"/>
       <c r="Y40" s="46">
-        <v>10.08</v>
+        <v>10.06</v>
       </c>
       <c r="Z40" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G40,Y40/10000,Trigger)</f>
-        <v>-2.0000000000000486E-6</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="34"/>
     </row>
@@ -22860,7 +22860,7 @@
         <v>SEK1S3S5Y=ICAP</v>
       </c>
       <c r="Q44" s="46">
-        <v>10.130000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="R44" s="46">
         <v>0</v>
@@ -22873,19 +22873,19 @@
       </c>
       <c r="U44" s="46">
         <f t="shared" si="2"/>
-        <v>10.130000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="V44" s="231"/>
       <c r="W44" s="233">
-        <v>10.15</v>
+        <v>10.1</v>
       </c>
       <c r="X44" s="231"/>
       <c r="Y44" s="46">
-        <v>10.130000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="Z44" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G44,Y44/10000,Trigger)</f>
-        <v>-2.0000000000000486E-6</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="34"/>
     </row>
@@ -22933,7 +22933,7 @@
         <v>SEK1S3S6Y=ICAP</v>
       </c>
       <c r="Q45" s="46">
-        <v>10.15</v>
+        <v>10.11</v>
       </c>
       <c r="R45" s="46">
         <v>0</v>
@@ -22946,19 +22946,19 @@
       </c>
       <c r="U45" s="46">
         <f t="shared" si="2"/>
-        <v>10.15</v>
+        <v>10.11</v>
       </c>
       <c r="V45" s="231"/>
       <c r="W45" s="233">
-        <v>10.17</v>
+        <v>10.11</v>
       </c>
       <c r="X45" s="231"/>
       <c r="Y45" s="46">
-        <v>10.15</v>
+        <v>10.11</v>
       </c>
       <c r="Z45" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G45,Y45/10000,Trigger)</f>
-        <v>-1.9999999999998318E-6</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="34"/>
     </row>
@@ -23006,7 +23006,7 @@
         <v>SEK1S3S7Y=ICAP</v>
       </c>
       <c r="Q46" s="46">
-        <v>10.16</v>
+        <v>10.1</v>
       </c>
       <c r="R46" s="46">
         <v>0</v>
@@ -23019,19 +23019,19 @@
       </c>
       <c r="U46" s="46">
         <f t="shared" si="2"/>
-        <v>10.16</v>
+        <v>10.1</v>
       </c>
       <c r="V46" s="231"/>
       <c r="W46" s="233">
-        <v>10.18</v>
+        <v>10.1</v>
       </c>
       <c r="X46" s="231"/>
       <c r="Y46" s="46">
-        <v>10.16</v>
+        <v>10.1</v>
       </c>
       <c r="Z46" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G46,Y46/10000,Trigger)</f>
-        <v>-2.0000000000000486E-6</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="34"/>
     </row>
@@ -23079,7 +23079,7 @@
         <v>SEK1S3S8Y=ICAP</v>
       </c>
       <c r="Q47" s="46">
-        <v>10.16</v>
+        <v>10.09</v>
       </c>
       <c r="R47" s="46">
         <v>0</v>
@@ -23092,19 +23092,19 @@
       </c>
       <c r="U47" s="46">
         <f t="shared" si="2"/>
-        <v>10.16</v>
+        <v>10.09</v>
       </c>
       <c r="V47" s="231"/>
       <c r="W47" s="233">
-        <v>10.18</v>
+        <v>10.09</v>
       </c>
       <c r="X47" s="231"/>
       <c r="Y47" s="46">
-        <v>10.16</v>
+        <v>10.09</v>
       </c>
       <c r="Z47" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G47,Y47/10000,Trigger)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="34"/>
     </row>
@@ -23152,7 +23152,7 @@
         <v>SEK1S3S9Y=ICAP</v>
       </c>
       <c r="Q48" s="46">
-        <v>10.16</v>
+        <v>10.08</v>
       </c>
       <c r="R48" s="46">
         <v>0</v>
@@ -23165,19 +23165,19 @@
       </c>
       <c r="U48" s="46">
         <f t="shared" si="2"/>
-        <v>10.16</v>
+        <v>10.08</v>
       </c>
       <c r="V48" s="231"/>
       <c r="W48" s="233">
-        <v>10.17</v>
+        <v>10.08</v>
       </c>
       <c r="X48" s="231"/>
       <c r="Y48" s="46">
-        <v>10.16</v>
+        <v>10.08</v>
       </c>
       <c r="Z48" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G48,Y48/10000,Trigger)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="34"/>
     </row>
@@ -23225,7 +23225,7 @@
         <v>SEK1S3S10Y=ICAP</v>
       </c>
       <c r="Q49" s="46">
-        <v>10.16</v>
+        <v>10.07</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -23238,15 +23238,15 @@
       </c>
       <c r="U49" s="46">
         <f t="shared" si="2"/>
-        <v>10.16</v>
+        <v>10.07</v>
       </c>
       <c r="V49" s="231"/>
       <c r="W49" s="233">
-        <v>10.16</v>
+        <v>10.07</v>
       </c>
       <c r="X49" s="231"/>
       <c r="Y49" s="46">
-        <v>10.16</v>
+        <v>10.07</v>
       </c>
       <c r="Z49" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G49,Y49/10000,Trigger)</f>
@@ -23298,7 +23298,7 @@
         <v>SEK1S3S12Y=ICAP</v>
       </c>
       <c r="Q50" s="46">
-        <v>10.15</v>
+        <v>10.06</v>
       </c>
       <c r="R50" s="46">
         <v>0</v>
@@ -23311,19 +23311,19 @@
       </c>
       <c r="U50" s="46">
         <f t="shared" si="2"/>
-        <v>10.15</v>
+        <v>10.06</v>
       </c>
       <c r="V50" s="231"/>
       <c r="W50" s="233">
-        <v>10.130000000000001</v>
+        <v>10.06</v>
       </c>
       <c r="X50" s="231"/>
       <c r="Y50" s="46">
-        <v>10.15</v>
+        <v>10.06</v>
       </c>
       <c r="Z50" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G50,Y50/10000,Trigger)</f>
-        <v>9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="34"/>
     </row>
@@ -23371,7 +23371,7 @@
         <v>SEK1S3S15Y=ICAP</v>
       </c>
       <c r="Q51" s="46">
-        <v>9.94</v>
+        <v>9.85</v>
       </c>
       <c r="R51" s="46">
         <v>0</v>
@@ -23384,19 +23384,19 @@
       </c>
       <c r="U51" s="46">
         <f t="shared" si="2"/>
-        <v>9.94</v>
+        <v>9.85</v>
       </c>
       <c r="V51" s="231"/>
       <c r="W51" s="233">
-        <v>9.91</v>
+        <v>9.85</v>
       </c>
       <c r="X51" s="231"/>
       <c r="Y51" s="46">
-        <v>9.94</v>
+        <v>9.85</v>
       </c>
       <c r="Z51" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G51,Y51/10000,Trigger)</f>
-        <v>1.9999999999998318E-6</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="34"/>
     </row>
@@ -23444,7 +23444,7 @@
         <v>SEK1S3S20Y=ICAP</v>
       </c>
       <c r="Q52" s="46">
-        <v>9.42</v>
+        <v>9.35</v>
       </c>
       <c r="R52" s="46">
         <v>0</v>
@@ -23457,19 +23457,19 @@
       </c>
       <c r="U52" s="46">
         <f t="shared" si="2"/>
-        <v>9.42</v>
+        <v>9.35</v>
       </c>
       <c r="V52" s="231"/>
       <c r="W52" s="233">
-        <v>9.3800000000000008</v>
+        <v>9.35</v>
       </c>
       <c r="X52" s="231"/>
       <c r="Y52" s="46">
-        <v>9.42</v>
+        <v>9.35</v>
       </c>
       <c r="Z52" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G52,Y52/10000,Trigger)</f>
-        <v>3.9999999999999888E-6</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="34"/>
     </row>
@@ -23517,7 +23517,7 @@
         <v>SEK1S3S25Y=ICAP</v>
       </c>
       <c r="Q53" s="46">
-        <v>8.9700000000000006</v>
+        <v>8.93</v>
       </c>
       <c r="R53" s="46">
         <v>0</v>
@@ -23530,19 +23530,19 @@
       </c>
       <c r="U53" s="46">
         <f t="shared" si="2"/>
-        <v>8.9700000000000006</v>
+        <v>8.93</v>
       </c>
       <c r="V53" s="231"/>
       <c r="W53" s="233">
-        <v>8.9600000000000009</v>
+        <v>8.93</v>
       </c>
       <c r="X53" s="231"/>
       <c r="Y53" s="46">
-        <v>8.9700000000000006</v>
+        <v>8.93</v>
       </c>
       <c r="Z53" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G53,Y53/10000,Trigger)</f>
-        <v>9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="34"/>
     </row>
@@ -23663,7 +23663,7 @@
         <v>SEK1S3S30Y=ICAP</v>
       </c>
       <c r="Q55" s="46">
-        <v>8.68</v>
+        <v>8.66</v>
       </c>
       <c r="R55" s="46">
         <v>0</v>
@@ -23676,15 +23676,15 @@
       </c>
       <c r="U55" s="46">
         <f t="shared" si="2"/>
-        <v>8.68</v>
+        <v>8.66</v>
       </c>
       <c r="V55" s="231"/>
       <c r="W55" s="233">
-        <v>8.68</v>
+        <v>8.66</v>
       </c>
       <c r="X55" s="231"/>
       <c r="Y55" s="46">
-        <v>8.68</v>
+        <v>8.66</v>
       </c>
       <c r="Z55" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G55,Y55/10000,Trigger)</f>
